--- a/Test Case Đồ án.xlsx
+++ b/Test Case Đồ án.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="211">
   <si>
     <t>STT</t>
   </si>
@@ -281,13 +281,431 @@
     <t>1. Nhập Email 
 2. Nhập mật khẩu 
 3. Tích chọn ghi nhớ mật khẩu</t>
+  </si>
+  <si>
+    <t>ĐĂNG XUẤT</t>
+  </si>
+  <si>
+    <t>Đăng xuất thành công</t>
+  </si>
+  <si>
+    <t>Không thể quay lại sau đăng xuất</t>
+  </si>
+  <si>
+    <t>Đăng xuất khi không có mạng</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng đăng xuất thành công khỏi tài khoản</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng không thể truy cập lại trang sau khi đăng xuất bằng nút Back trên trình duyệt</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng Đăng xuất khi mất kết nối mạng</t>
+  </si>
+  <si>
+    <t>Người dùng nhấn nút Đăng xuất</t>
+  </si>
+  <si>
+    <t>Nhấn nút Back sau khi đăng xuất</t>
+  </si>
+  <si>
+    <t>Nhấn nút Đăng xuất khi mất mạng</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng đến trang đăng nhập/trang chủ, session được xóa</t>
+  </si>
+  <si>
+    <t>Hiển thị trang đăng nhập, yêu cầu người dùng đăng nhập lại</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi, không thoát khỏi tài khoản</t>
+  </si>
+  <si>
+    <t>ĐỘC GIẢ</t>
+  </si>
+  <si>
+    <t>Tìm kiếm truyện theo từ khóa</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm truyện dựa trên từ khóa người dùng nhập vào</t>
+  </si>
+  <si>
+    <t>Từ khóa tìm kiếm</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách truyện phù hợp với từ khóa đã nhập.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm truyện theo bộ lọc</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm truyện dựa trên bộ lọc thể loại</t>
+  </si>
+  <si>
+    <t>Thể loại: "Hài hước"</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách truyện thuộc thể loại "Hài hước".</t>
+  </si>
+  <si>
+    <t>Tìm kiếm truyện theo trạng thái</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng tìm kiếm truyện dựa trên bộ lọc trạng thái hoàn thành</t>
+  </si>
+  <si>
+    <t>Trạng thái: "Hoàn thành"</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách truyện đã hoàn thành.</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể chọn một chương và xem nội dung chương đó</t>
+  </si>
+  <si>
+    <t>Đọc nội dung chương truyện</t>
+  </si>
+  <si>
+    <t>Nội dung chương 1 của truyện ABC được hiển thị đầy đủ và đúng định dạng (font, căn lề).</t>
+  </si>
+  <si>
+    <t>Chuyển chế độ ban đêm khi đọc truyện</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể bật chế độ ban đêm khi đọc truyện</t>
+  </si>
+  <si>
+    <t>Nhấn nút bật chế độ ban đêm</t>
+  </si>
+  <si>
+    <t>Giao diện đọc truyện chuyển sang nền tối, chữ sáng, không lỗi hiển thị.</t>
+  </si>
+  <si>
+    <t>Thay đổi kích thước chữ khi đọc truyện</t>
+  </si>
+  <si>
+    <t>Kiểm tra khả năng thay đổi kích thước chữ khi đọc truyện</t>
+  </si>
+  <si>
+    <t>Chọn kích thước chữ: "Vừa", "Lớn"</t>
+  </si>
+  <si>
+    <t>Kích thước chữ hiển thị thay đổi tương ứng với lựa chọn của người dùng.</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể thay đổi thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Thông tin được cập nhật thành công và hiển thị đúng sau khi lưu.</t>
+  </si>
+  <si>
+    <t>Xem danh sách truyện yêu thích</t>
+  </si>
+  <si>
+    <t>Kiểm tra danh sách truyện yêu thích của người dùng hiển thị đúng</t>
+  </si>
+  <si>
+    <t>Danh sách truyện yêu thích hiển thị đầy đủ và chính xác.</t>
+  </si>
+  <si>
+    <t>Bình luận truyện</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể gửi bình luận trên trang truyện</t>
+  </si>
+  <si>
+    <t>Nội dung bình luận: "Truyện này rất hay!"</t>
+  </si>
+  <si>
+    <t>Bình luận hiển thị ngay trên trang truyện sau khi người dùng gửi, có kèm tên hiển thị của người dùng.</t>
+  </si>
+  <si>
+    <t>Đánh giá truyện</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng người dùng đánh giá truyện theo thang điểm 1-5</t>
+  </si>
+  <si>
+    <t>Điểm đánh giá: 5 sao</t>
+  </si>
+  <si>
+    <t>Điểm đánh giá trung bình của truyện được cập nhật chính xác ngay sau khi người dùng gửi đánh giá.</t>
+  </si>
+  <si>
+    <t>Báo cáo nội dung vi phạm</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể báo cáo nội dung truyện vi phạm</t>
+  </si>
+  <si>
+    <t>Lý do báo cáo: "Vi phạm bản quyền"</t>
+  </si>
+  <si>
+    <t>Báo cáo gửi thành công đến quản trị viên, hiển thị thông báo "Báo cáo của bạn đã được gửi thành công".</t>
+  </si>
+  <si>
+    <t>Mua linh thạch bằng thẻ cào ĐT</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng mua linh thạch thông qua thẻ cào điện thoại</t>
+  </si>
+  <si>
+    <t>Linh thạch được cộng chính xác vào tài khoản nếu giao dịch thành công, hiển thị thông báo thành công.</t>
+  </si>
+  <si>
+    <t>Giao dịch thất bại bằng thẻ cào ĐT</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống xử lý khi nhập sai mã thẻ hoặc số seri</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi: "Mã thẻ không hợp lệ hoặc đã sử dụng", linh thạch không được cộng vào tài khoản.</t>
+  </si>
+  <si>
+    <t>Mua linh thạch bằng Paypal</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng mua linh thạch thông qua thanh toán bằng Paypal</t>
+  </si>
+  <si>
+    <t>Giao dịch thất bại bằng Paypal</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống xử lý khi giao dịch Paypal không thành công</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi: "Giao dịch thất bại", linh thạch không được cộng vào tài khoản.</t>
+  </si>
+  <si>
+    <t>Mua linh thạch bằng VISA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra chức năng mua linh thạch thông qua thanh toán bằng thẻ VISA </t>
+  </si>
+  <si>
+    <t>Thông tin thẻ: Số thẻ, Họ tên, Ngày hết hạn, CVV</t>
+  </si>
+  <si>
+    <t>Hiển thị lịch sử sử dụng linh thạch</t>
+  </si>
+  <si>
+    <t>Kiểm tra lịch sử giao dịch, bao gồm mua, đổi, hoặc sử dụng linh thạch</t>
+  </si>
+  <si>
+    <t>Lịch sử giao dịch hiển thị đầy đủ, đúng thời gian và chi tiết từng giao dịch.</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể đổi mật khẩu tài khoản</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Mật khẩu đã được thay đổi", người dùng được yêu cầu đăng nhập lại bằng mật khẩu mới.</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu thất bại</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống xử lý khi mật khẩu cũ không chính xác</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi: "Mật khẩu cũ không chính xác", mật khẩu không được thay đổi.</t>
+  </si>
+  <si>
+    <t>TÁC GIẢ</t>
+  </si>
+  <si>
+    <t>Đăng truyện thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra tác giả có thể đăng tải truyện mới</t>
+  </si>
+  <si>
+    <t>Truyện được đăng tải thành công và hiển thị trong danh sách với thông tin chính xác.</t>
+  </si>
+  <si>
+    <t>Đăng truyện thất bại - thiếu tên</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống xử lý khi tác giả không nhập tên truyện</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi: "Tên truyện không được để trống".</t>
+  </si>
+  <si>
+    <t>Đăng truyện thất bại - thiếu nội dung</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống xử lý khi tác giả không nhập nội dung</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi: "Nội dung truyện không được để trống".</t>
+  </si>
+  <si>
+    <t>Đăng truyện thất bại - trùng tên</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống xử lý khi tác giả đăng truyện có tên trùng với truyện đã tồn tại</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi: "Tên truyện đã tồn tại".</t>
+  </si>
+  <si>
+    <t>Xem hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể xem thông tin hồ sơ</t>
+  </si>
+  <si>
+    <t>Thông tin cá nhân và lịch sử hoạt động hiển thị đầy đủ và chính xác.</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra người dùng có thể cập nhật thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Hồ sơ được cập nhật thành công, hiển thị thông tin mới trên giao diện.</t>
+  </si>
+  <si>
+    <t>Cập nhật thất bại - email không hợp lệ</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống xử lý khi người dùng nhập email không đúng định dạng</t>
+  </si>
+  <si>
+    <t>Email: "email_sai_dinh_dang"</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi: "Email không hợp lệ".</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách đầy đủ</t>
+  </si>
+  <si>
+    <t>Kiểm tra danh sách truyện của tác giả hiển thị đầy đủ và chính xác</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách truyện với tên truyện, lượt xem, lượt yêu thích và trạng thái truyện.</t>
+  </si>
+  <si>
+    <t>Danh sách trống</t>
+  </si>
+  <si>
+    <t>Kiểm tra giao diện khi tác giả chưa đăng truyện nào</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo: "Bạn chưa đăng truyện nào".</t>
+  </si>
+  <si>
+    <t>Hiển thị thống kê chính xác</t>
+  </si>
+  <si>
+    <t>Kiểm tra các số liệu thống kê tổng quan hiển thị đúng</t>
+  </si>
+  <si>
+    <t>Hiển thị tổng lượt xem, lượt yêu thích và doanh thu của tất cả truyện.</t>
+  </si>
+  <si>
+    <t>Thống kê lượt xem theo chương</t>
+  </si>
+  <si>
+    <t>Kiểm tra thống kê lượt xem từng chương của một truyện cụ thể</t>
+  </si>
+  <si>
+    <t>ID truyện: "12345"</t>
+  </si>
+  <si>
+    <t>Biểu đồ lượt xem từng chương hiển thị chính xác theo dữ liệu thực tế.</t>
+  </si>
+  <si>
+    <t>Đọc chương thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra độc giả có thể mua quyền truy cập chương thu phí</t>
+  </si>
+  <si>
+    <t>Hệ thống cấp quyền truy cập chương, nội dung chương hiển thị đầy đủ.</t>
+  </si>
+  <si>
+    <t>Thanh toán thất bại - không đủ tiền</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống xử lý khi độc giả không đủ linh thạch để thanh toán</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi: "Bạn không đủ linh thạch để mua chương này".</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách câu hỏi</t>
+  </si>
+  <si>
+    <t>Kiểm tra danh sách câu hỏi thường gặp hiển thị chính xác và đầy đủ</t>
+  </si>
+  <si>
+    <t>Danh sách câu hỏi thường gặp hiển thị đầy đủ các câu hỏi và câu trả lời tương ứng.</t>
+  </si>
+  <si>
+    <t>1.Truyện: "Tên truyện ABC"
+2.Chương: "Chương 1"</t>
+  </si>
+  <si>
+    <t>1.Tên hiển thị mới: "Nguyen Van A"
+2.Email mới: "abc@gmail.com"</t>
+  </si>
+  <si>
+    <t>1.Mã thẻ: "0000000000"                                  2.Số seri: "111111111"</t>
+  </si>
+  <si>
+    <t>1.Tài khoản Paypal: "user@gmail.com"   2.Số tiền: 10 USD</t>
+  </si>
+  <si>
+    <t>1.Mật khẩu cũ: "abc123"                                2.Mật khẩu mới: "xyz456"</t>
+  </si>
+  <si>
+    <t>1.Mật khẩu cũ: "sai_mk"                          2.Mật khẩu mới: "xyz456"</t>
+  </si>
+  <si>
+    <t>1.Tên truyện: "Tên truyện A"
+2.Mô tả
+3.Thể loại
+4.Nội dung</t>
+  </si>
+  <si>
+    <t>1.Tên truyện: "  "
+2.Mô tả
+3.Thể loại
+4.Nội dung</t>
+  </si>
+  <si>
+    <t>1.Tên truyện
+2.Mô tả
+3.Thể loại
+4. Không có nội dung</t>
+  </si>
+  <si>
+    <t>1.Tên hiển thị mới: "Nguyen Van B"
+2.Email mới: "b@gmail.com"</t>
+  </si>
+  <si>
+    <t>1.ID chương: "001"
+2.Thanh toán: "500 linh thạch"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Mã thẻ: "1234567890"                                  2.Số seri: "987654321" </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +747,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -348,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -397,13 +823,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -421,18 +860,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -718,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D28" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="A1:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,13 +1219,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -911,16 +1381,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -936,8 +1406,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -953,8 +1423,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:5" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -971,7 +1441,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -988,7 +1458,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1005,7 +1475,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1022,7 +1492,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1039,7 +1509,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1056,7 +1526,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1073,7 +1543,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1090,7 +1560,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1107,7 +1577,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1124,508 +1594,874 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="A25" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="67.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>23</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>24</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
+      <c r="A29" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <v>25</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <v>26</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <v>27</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>28</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <v>29</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
+        <v>30</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
+        <v>31</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
+        <v>32</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
+        <v>33</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
+        <v>34</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
+        <v>35</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
+        <v>36</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <v>37</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
+        <v>38</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
+        <v>39</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
+        <v>40</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <v>41</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
+        <v>43</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="13">
+        <v>44</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+    </row>
+    <row r="50" spans="1:5" ht="67.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="13">
+        <v>45</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="67.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="13">
+        <v>46</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="67.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="13">
+        <v>47</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="67.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="13">
+        <v>48</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+    </row>
+    <row r="65" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="3"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+    </row>
+    <row r="68" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="3"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+    </row>
+    <row r="69" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+    </row>
+    <row r="70" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+    </row>
+    <row r="71" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+    </row>
+    <row r="74" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+    </row>
+    <row r="75" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+    </row>
+    <row r="76" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+    </row>
+    <row r="77" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="3"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+    </row>
+    <row r="78" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+    </row>
+    <row r="79" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+    </row>
+    <row r="81" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+    </row>
+    <row r="82" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="3"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+    </row>
+    <row r="83" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+    </row>
+    <row r="84" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="3"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+    </row>
+    <row r="85" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="3"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+    </row>
+    <row r="86" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="3"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+    </row>
+    <row r="87" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="3"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+    </row>
+    <row r="89" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+    </row>
+    <row r="90" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+    </row>
+    <row r="92" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+    </row>
+    <row r="93" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="13"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+    </row>
+    <row r="95" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+    </row>
+    <row r="96" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
@@ -1971,9 +2807,12 @@
       <c r="E145" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
